--- a/data/merge/clients_data.xlsx
+++ b/data/merge/clients_data.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,72 +436,72 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ClientID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>MI</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Birthday</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Telephone</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ethnicity</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Disability</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Veteran</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Bilingual</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Education</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ClientID</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -570,184 +566,204 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Leila</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Khadazhaia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Stambuli</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>31505</v>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Grayson</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>203-111-1111</t>
+          <t>2000-01-07 00:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Norwalk</t>
+          <t>929-444-4444</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>African American</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>GED</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>45661</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Masters Degree</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2025-01-01 00:00:00</t>
+        </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>45720</v>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2025-03-01 00:00:00</t>
+        </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Planning</t>
+          <t>Intro</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Strategic Career Planning</t>
+          <t>Discussed needs</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Teacher Aide</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
-        <v>36000</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>45692</v>
-      </c>
-      <c r="X2" t="n">
-        <v>12</v>
+          <t>HR Assistant</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>2025-02-01 00:00:00 / 2025-02-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>10 / 20</t>
+        </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Complaint</t>
+          <t>Inquiry of programs / Success Story</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Escalated</t>
+          <t>Follow-up / Resolved</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Maimuna</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Hamidu-Bawa</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>33392</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>1991-06-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>203-333-3333</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bridgeport</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>CT</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Caucasian</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>High School</t>
         </is>
       </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>45659</v>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2025-01-02 00:00:00</t>
+        </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -759,8 +775,10 @@
           <t>Pending</t>
         </is>
       </c>
-      <c r="R3" s="2" t="n">
-        <v>45718</v>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2025-03-02 00:00:00</t>
+        </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -777,14 +795,20 @@
           <t>IT Support</t>
         </is>
       </c>
-      <c r="V3" t="n">
-        <v>55000</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>45690</v>
-      </c>
-      <c r="X3" t="n">
-        <v>15</v>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>55000</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>2025-02-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
@@ -798,72 +822,78 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Jacque</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Latif</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>29262</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>1980-02-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>203-555-5555</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stamford</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>CT</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Asian</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Associates Degree</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>45660</v>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2025-01-03 00:00:00</t>
+        </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -875,8 +905,10 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="R4" s="2" t="n">
-        <v>45719</v>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2025-03-03 00:00:00</t>
+        </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -893,14 +925,20 @@
           <t>Teller</t>
         </is>
       </c>
-      <c r="V4" t="n">
-        <v>42000</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>45691</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8</v>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>42000</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>2025-02-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
@@ -914,81 +952,93 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ashley</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leila</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>33360</v>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Stambuli</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>929-222-2222</t>
+          <t>1986-04-03 00:00:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bronx</t>
+          <t>203-111-1111</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>Norwalk</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>African American</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Bachelors Degree</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>6</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>45663</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>GED</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2025-01-04 00:00:00</t>
+        </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Friend</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>45722</v>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2025-03-04 00:00:00</t>
+        </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -997,221 +1047,243 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Interview Techniques</t>
+          <t>Strategic Career Planning</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Admin Assistant</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
-        <v>38000</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>45694</v>
-      </c>
-      <c r="X5" t="n">
-        <v>20</v>
+          <t>Teacher Aide</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>36000</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>2025-02-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Volunteer Status</t>
+          <t>Complaint</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Escalated</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Khadazhaia</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Grayson</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>36532</v>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>1980-02-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>929-444-4444</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>Bronx</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Hispanic</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Masters Degree</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>45658</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Bachelors Degree</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2025-01-05 00:00:00</t>
+        </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>45717</v>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2025-03-05 00:00:00</t>
+        </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Intro</t>
+          <t>Closing</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Discussed needs</t>
+          <t>Success Story</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>HR Assistant</t>
-        </is>
-      </c>
-      <c r="V6" t="n">
-        <v>45000</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>45689</v>
-      </c>
-      <c r="X6" t="n">
-        <v>10</v>
+          <t>Cashier</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>2025-02-01 00:00:00 / 2025-02-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>10 / 20</t>
+        </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Inquiry of programs</t>
+          <t>Inquiry of programs / Success Story</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Follow-up</t>
+          <t>Follow-up / Resolved</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Khadazhaia</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Grayson</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>36532</v>
+          <t>Ashley</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>929-444-4444</t>
+          <t>1991-05-02 00:00:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>929-222-2222</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>Bronx</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>NY</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Hispanic</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Masters Degree</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>45658</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Bachelors Degree</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2025-01-06 00:00:00</t>
+        </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Friend</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1219,273 +1291,49 @@
           <t>New</t>
         </is>
       </c>
-      <c r="R7" s="2" t="n">
-        <v>45717</v>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2025-03-06 00:00:00</t>
+        </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Intro</t>
+          <t>Planning</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Discussed needs</t>
+          <t>Interview Techniques</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>HR Assistant</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v>45000</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>45693</v>
-      </c>
-      <c r="X7" t="n">
-        <v>20</v>
+          <t>Admin Assistant</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>38000</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>2025-02-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Success Story</t>
+          <t>Volunteer Status</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Resolved</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Ashley</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>29262</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>929-444-4444</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Bronx</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Bachelors Degree</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>5</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>45662</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>45721</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Closing</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Success Story</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Cashier</t>
-        </is>
-      </c>
-      <c r="V8" t="n">
-        <v>40000</v>
-      </c>
-      <c r="W8" s="2" t="n">
-        <v>45689</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Inquiry of programs</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>Follow-up</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Ashley</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>29262</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>929-444-4444</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Bronx</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Bachelors Degree</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>5</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>45662</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>45721</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Closing</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Success Story</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Cashier</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v>40000</v>
-      </c>
-      <c r="W9" s="2" t="n">
-        <v>45693</v>
-      </c>
-      <c r="X9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Success Story</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>Resolved</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
